--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2387462.351601718</v>
+        <v>2386721.888780993</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406073</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089989</v>
+        <v>96.80357797952004</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247073</v>
+        <v>89.18341408247062</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048976</v>
+        <v>119.5889224048974</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>104.8733446193097</v>
+        <v>238.0144996457563</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.12282671251627</v>
+        <v>34.81658261715464</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560304</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192616</v>
+        <v>15.72846453192605</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268824</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067118</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3585266371151</v>
+        <v>5.358526637114986</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622709</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027162</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
-        <v>94.2071238447502</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>119.9783821282069</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>106.5118524021716</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922459</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591513</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549977</v>
+        <v>16.89887198549965</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385647</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021854</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028132</v>
+        <v>36.0493695902812</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304847</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755892987</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437368</v>
+        <v>35.45957938437356</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529494</v>
+        <v>88.37870840529483</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494625</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200255</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632445</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938209</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>233.5562907382948</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089989</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>125.7238761419523</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711097</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642688</v>
+        <v>59.42064602642671</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.8728397687462</v>
+        <v>65.87283976874603</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247079</v>
+        <v>89.18341408247062</v>
       </c>
       <c r="U14" t="n">
-        <v>16.43343622512985</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.0144996457563</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715464</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560321</v>
+        <v>40.99189795560304</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192622</v>
+        <v>48.1839327633334</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268824</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115157</v>
+        <v>5.358526637114986</v>
       </c>
       <c r="H15" t="n">
-        <v>84.01603958400283</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>83.49414262488442</v>
       </c>
       <c r="S15" t="n">
-        <v>166.6979539789397</v>
+        <v>34.98135294622698</v>
       </c>
       <c r="T15" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475026</v>
+        <v>94.20712384475009</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>101.0839861167126</v>
       </c>
       <c r="W15" t="n">
-        <v>119.9783821282071</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076494</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459183</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922476</v>
+        <v>48.11537914922459</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5302200659153</v>
+        <v>35.53022006591513</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549982</v>
+        <v>16.89887198549965</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385664</v>
+        <v>14.71736161385647</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021871</v>
+        <v>13.70444699021854</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028137</v>
+        <v>36.0493695902812</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304864</v>
+        <v>28.51003926304847</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755893004</v>
+        <v>16.96724755892987</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437373</v>
+        <v>35.45957938437356</v>
       </c>
       <c r="S16" t="n">
-        <v>88.378708405295</v>
+        <v>88.37870840529483</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494642</v>
+        <v>95.26758743494625</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200255</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911155</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038785</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632462</v>
+        <v>93.99305435632445</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938226</v>
+        <v>86.86805231938209</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>90.37276924401695</v>
       </c>
       <c r="W17" t="n">
-        <v>111.8614794912964</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X17" t="n">
         <v>132.3516114523511</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>198.0085125086414</v>
+        <v>128.3832282987216</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7659706229939</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.66691378543838</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>48.92726692662031</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771005</v>
+        <v>195.1910385061424</v>
       </c>
       <c r="W19" t="n">
         <v>49.14350911047305</v>
@@ -2160,10 +2160,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>107.7846426579654</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>59.41697813864843</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>13.25670399134607</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.74441333696804</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>70.32715885379838</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2406,13 +2406,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>216.7575047890008</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>14.31549393480165</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662031</v>
+        <v>229.3601513350526</v>
       </c>
       <c r="V25" t="n">
         <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.74441333696804</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>44.2501333043184</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048767</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
-        <v>49.0388704145322</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2697,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>203.685317331692</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885235</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,10 +2798,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G29" t="n">
         <v>264.7570588588537</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
@@ -2858,7 +2858,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>162.0696626068272</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2919,13 +2919,13 @@
         <v>83.49414262488442</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048767</v>
+        <v>16.65389370048764</v>
       </c>
       <c r="T30" t="n">
-        <v>49.0388704145322</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
-        <v>221.4602038344225</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>55.72892492502544</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017583</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863426</v>
+        <v>17.13212013863423</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955552</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C32" t="n">
         <v>215.2288314925555</v>
@@ -3035,10 +3035,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G32" t="n">
         <v>264.7570588588537</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300673</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591581</v>
@@ -3095,7 +3095,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>7.601020176948936</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>142.9815445215986</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.43162686803092</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S33" t="n">
         <v>166.6979539789397</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885232</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017583</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863426</v>
+        <v>17.13212013863423</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955552</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742862</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,10 +3351,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>100.23611684401</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>25.30001352032493</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>229.3601513350526</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V37" t="n">
         <v>14.75815409771005</v>
@@ -3582,25 +3582,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>4.427171444577895</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.79712696322951</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558243</v>
+        <v>144.3728766558242</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054997</v>
+        <v>133.7830265054996</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242685</v>
+        <v>30.40550832242681</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>103.9744713519567</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.52696038129301</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0829306929842</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>120.1006484492989</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475654</v>
+        <v>6.084173352475625</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755497</v>
+        <v>65.40674103755494</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864471</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140771</v>
+        <v>185.7236316707067</v>
       </c>
       <c r="X43" t="n">
-        <v>4.809640273853859</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E44" t="n">
-        <v>161.0303549570785</v>
+        <v>161.0303549570776</v>
       </c>
       <c r="F44" t="n">
         <v>185.9760306265281</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242685</v>
       </c>
       <c r="V44" t="n">
         <v>106.8522433549516</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>40.78163897181115</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>84.01338665256854</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>120.100648449299</v>
+        <v>120.1006484492989</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475654</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755497</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864471</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140771</v>
       </c>
       <c r="X46" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853859</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>533.5913669698626</v>
+        <v>618.8269353115325</v>
       </c>
       <c r="C11" t="n">
-        <v>533.5913669698626</v>
+        <v>618.8269353115325</v>
       </c>
       <c r="D11" t="n">
-        <v>308.3727401133268</v>
+        <v>618.8269353115325</v>
       </c>
       <c r="E11" t="n">
-        <v>308.3727401133268</v>
+        <v>618.8269353115325</v>
       </c>
       <c r="F11" t="n">
-        <v>30.433907073934</v>
+        <v>521.0455434130273</v>
       </c>
       <c r="G11" t="n">
-        <v>30.433907073934</v>
+        <v>235.1015857316204</v>
       </c>
       <c r="H11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020952</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241021</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5063,13 +5063,13 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T11" t="n">
-        <v>1431.61109704774</v>
+        <v>1431.611097047739</v>
       </c>
       <c r="U11" t="n">
         <v>1310.814205729661</v>
@@ -5078,13 +5078,13 @@
         <v>1112.798390136305</v>
       </c>
       <c r="W11" t="n">
-        <v>893.076806616406</v>
+        <v>1112.798390136305</v>
       </c>
       <c r="X11" t="n">
-        <v>787.1441352837697</v>
+        <v>872.37970362544</v>
       </c>
       <c r="Y11" t="n">
-        <v>787.1441352837697</v>
+        <v>872.37970362544</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>642.7098159295617</v>
+        <v>132.8177251628264</v>
       </c>
       <c r="C12" t="n">
-        <v>468.2567866484347</v>
+        <v>91.41176763191424</v>
       </c>
       <c r="D12" t="n">
-        <v>452.3694487373982</v>
+        <v>75.52442972087783</v>
       </c>
       <c r="E12" t="n">
-        <v>293.1319937319427</v>
+        <v>49.33404646563718</v>
       </c>
       <c r="F12" t="n">
-        <v>146.5974357588276</v>
+        <v>35.846560242737</v>
       </c>
       <c r="G12" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K12" t="n">
-        <v>119.7913802412352</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7913802412352</v>
+        <v>318.0889236932635</v>
       </c>
       <c r="M12" t="n">
-        <v>496.4109802811685</v>
+        <v>694.7085237331966</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211018</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1383.299658905641</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.383708616427</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S12" t="n">
-        <v>1486.360653751016</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T12" t="n">
-        <v>1418.313856114378</v>
+        <v>1067.882194811034</v>
       </c>
       <c r="U12" t="n">
-        <v>1323.155145160085</v>
+        <v>839.6764121065263</v>
       </c>
       <c r="V12" t="n">
-        <v>1221.050108678557</v>
+        <v>604.5243038747835</v>
       </c>
       <c r="W12" t="n">
-        <v>1099.85982370057</v>
+        <v>483.3340188967967</v>
       </c>
       <c r="X12" t="n">
-        <v>892.0083234950371</v>
+        <v>375.7462891976335</v>
       </c>
       <c r="Y12" t="n">
-        <v>684.2480247300832</v>
+        <v>167.9859904326796</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858028</v>
+        <v>194.451641485802</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081107</v>
+        <v>158.56253030811</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459891</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138108</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661153</v>
       </c>
       <c r="G13" t="n">
-        <v>76.3705604294679</v>
+        <v>76.37056042946766</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184308</v>
+        <v>47.57254097184294</v>
       </c>
       <c r="I13" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220475</v>
+        <v>84.15679020220485</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701334</v>
+        <v>203.4791748685357</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383614</v>
+        <v>394.3108706367639</v>
       </c>
       <c r="M13" t="n">
-        <v>598.8167744819575</v>
+        <v>598.8167744819555</v>
       </c>
       <c r="N13" t="n">
-        <v>806.9952085564978</v>
+        <v>806.995208556496</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624647</v>
+        <v>862.8204075624628</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206712</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571221</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856976</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877721</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493624</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936916</v>
+        <v>582.1111193936904</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069446</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591421</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658278</v>
+        <v>243.0530345658269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1094.920676214766</v>
+        <v>453.3640211210794</v>
       </c>
       <c r="C14" t="n">
-        <v>859.005231024569</v>
+        <v>217.4485759308825</v>
       </c>
       <c r="D14" t="n">
-        <v>859.005231024569</v>
+        <v>217.4485759308825</v>
       </c>
       <c r="E14" t="n">
-        <v>859.005231024569</v>
+        <v>217.4485759308825</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851761</v>
+        <v>217.4485759308825</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037689</v>
+        <v>90.45476164608218</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608237</v>
+        <v>90.45476164608218</v>
       </c>
       <c r="I14" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020952</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326568</v>
+        <v>226.9372683326559</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550294</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241033</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N14" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O14" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
         <v>1455.157131708067</v>
@@ -5309,19 +5309,19 @@
         <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1348.473444528673</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="V14" t="n">
-        <v>1348.473444528673</v>
+        <v>1167.057059465751</v>
       </c>
       <c r="W14" t="n">
-        <v>1348.473444528673</v>
+        <v>947.3354759458514</v>
       </c>
       <c r="X14" t="n">
-        <v>1348.473444528673</v>
+        <v>706.9167894349863</v>
       </c>
       <c r="Y14" t="n">
-        <v>1348.473444528673</v>
+        <v>706.9167894349863</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>431.6951699071016</v>
+        <v>298.648098156887</v>
       </c>
       <c r="C15" t="n">
-        <v>390.2892123761893</v>
+        <v>257.2421406259749</v>
       </c>
       <c r="D15" t="n">
-        <v>374.4018744651527</v>
+        <v>208.5715014710927</v>
       </c>
       <c r="E15" t="n">
-        <v>215.1644194596972</v>
+        <v>182.381118215852</v>
       </c>
       <c r="F15" t="n">
-        <v>201.6769332367969</v>
+        <v>35.846560242737</v>
       </c>
       <c r="G15" t="n">
-        <v>196.2642800679937</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H15" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J15" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867616</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M15" t="n">
-        <v>510.7163377867616</v>
+        <v>575.3166944440778</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211018</v>
+        <v>951.9362944840109</v>
       </c>
       <c r="O15" t="n">
-        <v>1185.002115453613</v>
+        <v>1263.907829616522</v>
       </c>
       <c r="P15" t="n">
-        <v>1418.383708616427</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1437.357835893787</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1268.976064197888</v>
+        <v>1402.023135948102</v>
       </c>
       <c r="T15" t="n">
-        <v>1067.882194811035</v>
+        <v>1200.929266561249</v>
       </c>
       <c r="U15" t="n">
-        <v>972.723483856742</v>
+        <v>1105.770555606956</v>
       </c>
       <c r="V15" t="n">
-        <v>870.6184473752139</v>
+        <v>1003.665519125429</v>
       </c>
       <c r="W15" t="n">
         <v>749.428162397227</v>
       </c>
       <c r="X15" t="n">
-        <v>674.6237339419089</v>
+        <v>541.5766621916941</v>
       </c>
       <c r="Y15" t="n">
-        <v>599.9105069271696</v>
+        <v>333.8163634267402</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858033</v>
+        <v>194.451641485802</v>
       </c>
       <c r="C16" t="n">
-        <v>158.562530308111</v>
+        <v>158.56253030811</v>
       </c>
       <c r="D16" t="n">
-        <v>141.49296264599</v>
+        <v>141.4929626459891</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138116</v>
+        <v>126.6269408138108</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661159</v>
+        <v>112.7840650661153</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946803</v>
+        <v>76.37056042946766</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184314</v>
+        <v>47.57254097184294</v>
       </c>
       <c r="I16" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220469</v>
+        <v>84.15679020220485</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701333</v>
+        <v>218.3899330701336</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383613</v>
+        <v>409.2216288383618</v>
       </c>
       <c r="M16" t="n">
-        <v>613.7275326835527</v>
+        <v>532.1693508240789</v>
       </c>
       <c r="N16" t="n">
-        <v>821.905966758093</v>
+        <v>740.3477848986194</v>
       </c>
       <c r="O16" t="n">
-        <v>1008.130600786445</v>
+        <v>926.5724189269717</v>
       </c>
       <c r="P16" t="n">
-        <v>1032.378020408309</v>
+        <v>1081.219273571221</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571224</v>
+        <v>1081.219273571221</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856999</v>
+        <v>956.1300939856976</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877742</v>
+        <v>859.9002076877721</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493644</v>
+        <v>703.7485358493624</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936922</v>
+        <v>582.1111193936904</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069463</v>
+        <v>425.7410211069446</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591437</v>
+        <v>330.7985419591421</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658283</v>
+        <v>243.0530345658269</v>
       </c>
     </row>
     <row r="17">
@@ -5489,67 +5489,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810894</v>
+        <v>872.4784887810898</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852413</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230544</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I17" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108021078</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326568</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550294</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241033</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N17" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O17" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P17" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W17" t="n">
         <v>1303.351633548412</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>485.1403297137558</v>
+        <v>351.421494328176</v>
       </c>
       <c r="C18" t="n">
-        <v>485.1403297137558</v>
+        <v>176.968465047049</v>
       </c>
       <c r="D18" t="n">
-        <v>336.2059200525046</v>
+        <v>176.968465047049</v>
       </c>
       <c r="E18" t="n">
         <v>176.968465047049</v>
       </c>
       <c r="F18" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G18" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H18" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I18" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J18" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722126</v>
       </c>
       <c r="K18" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L18" t="n">
-        <v>510.7163377867616</v>
+        <v>510.7163377867615</v>
       </c>
       <c r="M18" t="n">
-        <v>887.3359378266948</v>
+        <v>887.3359378266946</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.723818564189</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O18" t="n">
-        <v>1521.6953536967</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="P18" t="n">
-        <v>1521.6953536967</v>
+        <v>1497.337131029442</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1437.357835893787</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S18" t="n">
-        <v>1268.976064197888</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1268.976064197888</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U18" t="n">
-        <v>1268.976064197888</v>
+        <v>924.01392990944</v>
       </c>
       <c r="V18" t="n">
-        <v>1268.976064197888</v>
+        <v>688.8618216776972</v>
       </c>
       <c r="W18" t="n">
-        <v>1068.967465704311</v>
+        <v>559.18179309313</v>
       </c>
       <c r="X18" t="n">
-        <v>861.1159654987778</v>
+        <v>559.18179309313</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.3556667338239</v>
+        <v>351.421494328176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G19" t="n">
-        <v>43.22876948346772</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H19" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I19" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J19" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531975</v>
+        <v>94.69987566531972</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881258</v>
@@ -5707,16 +5707,16 @@
         <v>277.2364804240506</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810907</v>
+        <v>872.4784887810898</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852427</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230558</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693752</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243313</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I20" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108021078</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326568</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550294</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241033</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N20" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O20" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y20" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>220.2729700416933</v>
+        <v>317.8280416542032</v>
       </c>
       <c r="C21" t="n">
-        <v>111.399593619506</v>
+        <v>317.8280416542032</v>
       </c>
       <c r="D21" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E21" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F21" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G21" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I21" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J21" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722126</v>
       </c>
       <c r="K21" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>486.3521110234743</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="M21" t="n">
-        <v>862.9717110634076</v>
+        <v>599.6809212073651</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.723818564189</v>
+        <v>976.3005212472982</v>
       </c>
       <c r="O21" t="n">
-        <v>1521.6953536967</v>
+        <v>1288.27205637981</v>
       </c>
       <c r="P21" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.653649542624</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1521.6953536967</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="U21" t="n">
-        <v>1293.489570992192</v>
+        <v>1008.058183802425</v>
       </c>
       <c r="V21" t="n">
-        <v>1058.33746276045</v>
+        <v>948.0410341674267</v>
       </c>
       <c r="W21" t="n">
-        <v>804.100106032248</v>
+        <v>693.8036774392251</v>
       </c>
       <c r="X21" t="n">
-        <v>596.2486058267152</v>
+        <v>693.8036774392251</v>
       </c>
       <c r="Y21" t="n">
-        <v>388.4883070617613</v>
+        <v>486.0433786742712</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531975</v>
+        <v>94.69987566531972</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881258</v>
@@ -5932,28 +5932,28 @@
         <v>326.6579621681115</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681115</v>
+        <v>157.793133463984</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681115</v>
+        <v>157.793133463984</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681115</v>
+        <v>157.793133463984</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240506</v>
+        <v>108.3716517199231</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627273</v>
+        <v>93.46442535859977</v>
       </c>
       <c r="W22" t="n">
-        <v>212.0823719041737</v>
+        <v>43.82451716620275</v>
       </c>
       <c r="X22" t="n">
-        <v>212.0823719041737</v>
+        <v>43.82451716620275</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0823719041737</v>
+        <v>43.82451716620275</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810895</v>
+        <v>872.47848878109</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852419</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230546</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E23" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F23" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020939</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326554</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550281</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M23" t="n">
-        <v>789.555297924102</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6008,28 +6008,28 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
         <v>1019.301067000648</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>659.5933589948828</v>
+        <v>623.8096765378583</v>
       </c>
       <c r="C24" t="n">
-        <v>485.1403297137558</v>
+        <v>449.3566472567313</v>
       </c>
       <c r="D24" t="n">
-        <v>336.2059200525046</v>
+        <v>300.42223759548</v>
       </c>
       <c r="E24" t="n">
-        <v>176.968465047049</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F24" t="n">
-        <v>30.43390707393398</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393398</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J24" t="n">
-        <v>54.79813383722126</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K24" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L24" t="n">
-        <v>510.7163377867615</v>
+        <v>486.3521110234743</v>
       </c>
       <c r="M24" t="n">
-        <v>887.3359378266946</v>
+        <v>862.9717110634076</v>
       </c>
       <c r="N24" t="n">
-        <v>1263.955537866628</v>
+        <v>873.0305803211018</v>
       </c>
       <c r="O24" t="n">
-        <v>1418.383708616426</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1418.383708616426</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197887</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T24" t="n">
-        <v>1268.976064197887</v>
+        <v>1152.219712613949</v>
       </c>
       <c r="U24" t="n">
-        <v>1050.029089663543</v>
+        <v>1152.219712613949</v>
       </c>
       <c r="V24" t="n">
-        <v>1050.029089663543</v>
+        <v>917.0676043822061</v>
       </c>
       <c r="W24" t="n">
-        <v>1035.568994779905</v>
+        <v>902.6075094985681</v>
       </c>
       <c r="X24" t="n">
-        <v>1035.568994779905</v>
+        <v>902.6075094985681</v>
       </c>
       <c r="Y24" t="n">
-        <v>827.8086960149508</v>
+        <v>694.8472107336142</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947715</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531972</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881258</v>
@@ -6178,19 +6178,19 @@
         <v>326.6579621681115</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240506</v>
+        <v>94.98104162765431</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633102</v>
       </c>
       <c r="W25" t="n">
-        <v>212.0823719041737</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X25" t="n">
-        <v>212.0823719041737</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0823719041737</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514023</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028714</v>
+        <v>809.8470710028723</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601851</v>
+        <v>550.420823060186</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754844</v>
+        <v>282.9894504754853</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450499</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I26" t="n">
         <v>55.32608743906316</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K26" t="n">
         <v>548.9166880491196</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471597</v>
+        <v>955.9037100471596</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
@@ -6242,7 +6242,7 @@
         <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831067</v>
       </c>
       <c r="Q26" t="n">
         <v>2734.936491467168</v>
@@ -6257,16 +6257,16 @@
         <v>2646.707063508978</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>920.8992057694708</v>
+        <v>535.5511296987607</v>
       </c>
       <c r="C27" t="n">
-        <v>746.4461764883438</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="D27" t="n">
-        <v>597.5117668270925</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="E27" t="n">
-        <v>438.274311821637</v>
+        <v>201.8606454121782</v>
       </c>
       <c r="F27" t="n">
-        <v>291.739753848522</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="G27" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I27" t="n">
         <v>55.32608743906316</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1919.202275730635</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U27" t="n">
-        <v>1842.556149873049</v>
+        <v>1303.539661529371</v>
       </c>
       <c r="V27" t="n">
-        <v>1607.404041641306</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W27" t="n">
-        <v>1353.166684913104</v>
+        <v>814.1501965694272</v>
       </c>
       <c r="X27" t="n">
-        <v>1145.315184707571</v>
+        <v>608.4074517899403</v>
       </c>
       <c r="Y27" t="n">
-        <v>937.5548859426176</v>
+        <v>552.2068098719076</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209085</v>
+        <v>91.32388724474168</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992282</v>
+        <v>73.947361163756</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992282</v>
+        <v>75.36166255139325</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="F28" t="n">
         <v>83.51244133992282</v>
@@ -6379,55 +6379,55 @@
         <v>55.32608743906316</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906316</v>
+        <v>56.6726970090045</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32608743906316</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K28" t="n">
-        <v>83.02212736033353</v>
+        <v>132.3734726361004</v>
       </c>
       <c r="L28" t="n">
-        <v>143.4543881061761</v>
+        <v>192.805733381943</v>
       </c>
       <c r="M28" t="n">
-        <v>217.5608569289822</v>
+        <v>266.9122022047491</v>
       </c>
       <c r="N28" t="n">
-        <v>443.8834756568045</v>
+        <v>493.2348209325714</v>
       </c>
       <c r="O28" t="n">
-        <v>648.2522943384389</v>
+        <v>556.7910181444813</v>
       </c>
       <c r="P28" t="n">
-        <v>821.0433336359704</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359704</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>803.738161778764</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438594</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426403</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>517.622936300937</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419714</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>276.640591751932</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>200.2106977008359</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.977775404227</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514023</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028712</v>
+        <v>809.8470710028716</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601848</v>
+        <v>550.4208230601853</v>
       </c>
       <c r="G29" t="n">
-        <v>282.989450475484</v>
+        <v>282.9894504754845</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450404</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210063</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
         <v>955.9037100471598</v>
@@ -6473,7 +6473,7 @@
         <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O29" t="n">
         <v>2233.040522606063</v>
@@ -6485,7 +6485,7 @@
         <v>2734.936491467168</v>
       </c>
       <c r="R29" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953157</v>
       </c>
       <c r="S29" t="n">
         <v>2718.278735061232</v>
@@ -6497,7 +6497,7 @@
         <v>2544.422757287606</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W29" t="n">
         <v>2163.710528367764</v>
@@ -6525,19 +6525,19 @@
         <v>214.5635424445186</v>
       </c>
       <c r="E30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="F30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="G30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="J30" t="n">
         <v>79.69031420235044</v>
@@ -6570,22 +6570,22 @@
         <v>1884.398970467653</v>
       </c>
       <c r="T30" t="n">
-        <v>1834.864757927722</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U30" t="n">
-        <v>1611.167582337396</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V30" t="n">
-        <v>1376.015474105653</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W30" t="n">
-        <v>1121.778117377452</v>
+        <v>965.7098534163486</v>
       </c>
       <c r="X30" t="n">
-        <v>913.9266171719189</v>
+        <v>909.418010057737</v>
       </c>
       <c r="Y30" t="n">
-        <v>706.166318406965</v>
+        <v>701.657711292783</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8889674209085</v>
+        <v>91.32388724474153</v>
       </c>
       <c r="C31" t="n">
-        <v>83.51244133992282</v>
+        <v>73.94736116375587</v>
       </c>
       <c r="D31" t="n">
-        <v>83.51244133992282</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="G31" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998147</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906316</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1931552206159</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="K31" t="n">
-        <v>279.5704827418266</v>
+        <v>73.45704718416624</v>
       </c>
       <c r="L31" t="n">
-        <v>440.5416274575111</v>
+        <v>282.4329276056764</v>
       </c>
       <c r="M31" t="n">
-        <v>514.6480962803172</v>
+        <v>356.5393964284824</v>
       </c>
       <c r="N31" t="n">
-        <v>592.427095332472</v>
+        <v>582.8620151563048</v>
       </c>
       <c r="O31" t="n">
-        <v>648.2522943384389</v>
+        <v>787.2308338379391</v>
       </c>
       <c r="P31" t="n">
-        <v>821.0433336359704</v>
+        <v>811.4782534598031</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.0433336359704</v>
+        <v>811.4782534598031</v>
       </c>
       <c r="R31" t="n">
-        <v>803.738161778764</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S31" t="n">
-        <v>732.9793242438594</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T31" t="n">
-        <v>655.2620230426403</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U31" t="n">
-        <v>517.622936300937</v>
+        <v>508.0578561247698</v>
       </c>
       <c r="V31" t="n">
-        <v>414.4981049419714</v>
+        <v>404.9330247658042</v>
       </c>
       <c r="W31" t="n">
-        <v>276.640591751932</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2106977008359</v>
+        <v>190.6456175246688</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.977775404227</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607516</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754196</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E32" t="n">
-        <v>809.847071002873</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601866</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754859</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450586</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210059</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491193</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6716,7 +6716,7 @@
         <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831067</v>
       </c>
       <c r="Q32" t="n">
         <v>2734.936491467168</v>
@@ -6725,25 +6725,25 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953607</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>237.4569148787245</v>
+        <v>533.4423742727149</v>
       </c>
       <c r="C33" t="n">
-        <v>63.00388559759745</v>
+        <v>358.9893449915879</v>
       </c>
       <c r="D33" t="n">
-        <v>63.00388559759745</v>
+        <v>358.9893449915879</v>
       </c>
       <c r="E33" t="n">
-        <v>55.32608743906317</v>
+        <v>199.7518899861324</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235045</v>
+        <v>79.69031420235044</v>
       </c>
       <c r="K33" t="n">
         <v>247.9535015325612</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1908.354939616483</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1739.973167920584</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T33" t="n">
-        <v>1538.879298533731</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U33" t="n">
-        <v>1310.673515829224</v>
+        <v>1303.539661529371</v>
       </c>
       <c r="V33" t="n">
-        <v>1075.521407597481</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W33" t="n">
-        <v>821.2840508692793</v>
+        <v>965.7098534163483</v>
       </c>
       <c r="X33" t="n">
-        <v>613.4325506637465</v>
+        <v>757.8583532108155</v>
       </c>
       <c r="Y33" t="n">
-        <v>405.6722518987925</v>
+        <v>701.6577112927829</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209085</v>
+        <v>91.32388724474153</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992283</v>
+        <v>73.94736116375587</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992283</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992283</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998152</v>
+        <v>65.61152179998147</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900451</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J34" t="n">
-        <v>56.67269700900451</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="K34" t="n">
-        <v>60.50640485454768</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L34" t="n">
-        <v>120.9386656003903</v>
+        <v>416.679295381784</v>
       </c>
       <c r="M34" t="n">
-        <v>195.0451344231963</v>
+        <v>505.0830161041499</v>
       </c>
       <c r="N34" t="n">
-        <v>421.3677531510187</v>
+        <v>582.8620151563048</v>
       </c>
       <c r="O34" t="n">
-        <v>625.736571832653</v>
+        <v>787.2308338379391</v>
       </c>
       <c r="P34" t="n">
-        <v>739.1471376181796</v>
+        <v>811.4782534598031</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.0433336359704</v>
+        <v>811.4782534598031</v>
       </c>
       <c r="R34" t="n">
-        <v>803.738161778764</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S34" t="n">
-        <v>732.9793242438594</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426403</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U34" t="n">
-        <v>517.622936300937</v>
+        <v>508.0578561247698</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419714</v>
+        <v>404.9330247658042</v>
       </c>
       <c r="W34" t="n">
-        <v>276.640591751932</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X34" t="n">
-        <v>200.2106977008359</v>
+        <v>190.6456175246688</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.977775404227</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>872.4784887810896</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852415</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230546</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E35" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693741</v>
       </c>
       <c r="F35" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243301</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372716</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>659.5933589948828</v>
+        <v>353.8213460163123</v>
       </c>
       <c r="C36" t="n">
-        <v>485.1403297137558</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D36" t="n">
-        <v>336.2059200525046</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E36" t="n">
-        <v>176.968465047049</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F36" t="n">
         <v>30.43390707393398</v>
@@ -7014,16 +7014,16 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J36" t="n">
-        <v>54.79813383722126</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K36" t="n">
-        <v>54.79813383722126</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="L36" t="n">
-        <v>342.4531504565508</v>
+        <v>318.0889236932635</v>
       </c>
       <c r="M36" t="n">
-        <v>719.0727504964839</v>
+        <v>694.7085237331966</v>
       </c>
       <c r="N36" t="n">
         <v>873.0305803211008</v>
@@ -7038,28 +7038,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R36" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S36" t="n">
-        <v>1268.976064197887</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T36" t="n">
-        <v>1268.976064197887</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U36" t="n">
-        <v>1268.976064197887</v>
+        <v>1050.971109741211</v>
       </c>
       <c r="V36" t="n">
-        <v>1268.976064197887</v>
+        <v>815.8190015094679</v>
       </c>
       <c r="W36" t="n">
-        <v>1243.420494985437</v>
+        <v>561.5816447812663</v>
       </c>
       <c r="X36" t="n">
-        <v>1035.568994779905</v>
+        <v>561.5816447812663</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.8086960149508</v>
+        <v>353.8213460163123</v>
       </c>
     </row>
     <row r="37">
@@ -7120,10 +7120,10 @@
         <v>326.6579621681115</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681115</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681115</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U37" t="n">
         <v>94.98104162765429</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810886</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852405</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230536</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693731</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243293</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372716</v>
@@ -7172,7 +7172,7 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K38" t="n">
         <v>226.9372683326555</v>
@@ -7205,19 +7205,19 @@
         <v>1521.695353696699</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548411</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131895</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>659.5933589948828</v>
+        <v>254.3312088865823</v>
       </c>
       <c r="C39" t="n">
-        <v>485.1403297137558</v>
+        <v>254.3312088865823</v>
       </c>
       <c r="D39" t="n">
-        <v>336.2059200525046</v>
+        <v>254.3312088865823</v>
       </c>
       <c r="E39" t="n">
-        <v>176.968465047049</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="F39" t="n">
-        <v>30.43390707393398</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="G39" t="n">
-        <v>30.43390707393398</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H39" t="n">
-        <v>30.43390707393398</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I39" t="n">
         <v>30.43390707393398</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722126</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K39" t="n">
-        <v>54.79813383722126</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L39" t="n">
-        <v>342.4531504565508</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M39" t="n">
-        <v>599.7226253614405</v>
+        <v>575.3166944440778</v>
       </c>
       <c r="N39" t="n">
-        <v>976.3422254013735</v>
+        <v>951.9362944840109</v>
       </c>
       <c r="O39" t="n">
-        <v>1288.313760533885</v>
+        <v>1263.907829616522</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.695353696699</v>
+        <v>1497.289422779337</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R39" t="n">
-        <v>1497.657851713639</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S39" t="n">
-        <v>1497.657851713639</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T39" t="n">
-        <v>1497.657851713639</v>
+        <v>1320.601484309846</v>
       </c>
       <c r="U39" t="n">
-        <v>1497.657851713639</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="V39" t="n">
-        <v>1497.657851713639</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="W39" t="n">
-        <v>1243.420494985437</v>
+        <v>838.1583448771371</v>
       </c>
       <c r="X39" t="n">
-        <v>1035.568994779905</v>
+        <v>630.3068446716043</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.8086960149508</v>
+        <v>422.5465459066504</v>
       </c>
     </row>
     <row r="40">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829036</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416669</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340917</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350224</v>
+        <v>532.8081616350228</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445899</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121431</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H41" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890033</v>
+        <v>63.97560257890036</v>
       </c>
       <c r="J41" t="n">
-        <v>139.9876132094138</v>
+        <v>141.688015056145</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1722804618598</v>
+        <v>307.872682308591</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842324</v>
+        <v>566.3160846309636</v>
       </c>
       <c r="M41" t="n">
-        <v>868.7903100533063</v>
+        <v>993.3830543982476</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250563</v>
+        <v>1287.847547595504</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316133</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.19370786547</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7448,7 +7448,7 @@
         <v>1586.878916557331</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X41" t="n">
         <v>1306.907159824487</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>181.0450201765319</v>
+        <v>598.9824929140068</v>
       </c>
       <c r="C42" t="n">
-        <v>181.0450201765319</v>
+        <v>424.5294636328798</v>
       </c>
       <c r="D42" t="n">
-        <v>181.0450201765319</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="E42" t="n">
-        <v>181.0450201765319</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="F42" t="n">
-        <v>34.51046220341689</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G42" t="n">
         <v>34.51046220341689</v>
@@ -7488,10 +7488,10 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670417</v>
       </c>
       <c r="K42" t="n">
-        <v>34.51046220341689</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
         <v>275.573025203191</v>
@@ -7512,28 +7512,28 @@
         <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1644.182746149336</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S42" t="n">
-        <v>1475.800974453437</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T42" t="n">
-        <v>1274.707105066585</v>
+        <v>1524.429240783992</v>
       </c>
       <c r="U42" t="n">
-        <v>1046.501322362077</v>
+        <v>1296.223458079484</v>
       </c>
       <c r="V42" t="n">
-        <v>811.3492141303343</v>
+        <v>1061.071349847741</v>
       </c>
       <c r="W42" t="n">
-        <v>557.1118574021327</v>
+        <v>806.8339931195396</v>
       </c>
       <c r="X42" t="n">
-        <v>349.2603571966</v>
+        <v>598.9824929140068</v>
       </c>
       <c r="Y42" t="n">
-        <v>349.2603571966</v>
+        <v>598.9824929140068</v>
       </c>
     </row>
     <row r="43">
@@ -7591,22 +7591,22 @@
         <v>330.7345172975944</v>
       </c>
       <c r="R43" t="n">
-        <v>209.4207309851713</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4207309851713</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="T43" t="n">
-        <v>203.275101336206</v>
+        <v>324.5888876486292</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467565</v>
+        <v>258.5214724591797</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524679</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225917</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X43" t="n">
         <v>34.51046220341689</v>
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829042</v>
+        <v>976.4306445829036</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416675</v>
+        <v>830.5994560416671</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340922</v>
+        <v>695.4650858340917</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350229</v>
+        <v>532.8081616350223</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445904</v>
+        <v>344.9535852445898</v>
       </c>
       <c r="G44" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H44" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890036</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29429658517589</v>
+        <v>64.8291562096924</v>
       </c>
       <c r="K44" t="n">
-        <v>306.1722804618598</v>
+        <v>307.872682308591</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6156827842324</v>
+        <v>566.3160846309636</v>
       </c>
       <c r="M44" t="n">
-        <v>868.7903100533063</v>
+        <v>993.3830543982476</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.254803250563</v>
+        <v>1287.847547595504</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.121636316133</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.19370786547</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S44" t="n">
         <v>1725.523110170844</v>
@@ -7679,7 +7679,7 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V44" t="n">
         <v>1586.878916557331</v>
@@ -7688,10 +7688,10 @@
         <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824488</v>
+        <v>1306.907159824487</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>993.8462011050461</v>
+        <v>347.4232164035618</v>
       </c>
       <c r="C45" t="n">
-        <v>819.3931718239191</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="D45" t="n">
-        <v>670.4587621626679</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="E45" t="n">
-        <v>511.2213071572123</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="F45" t="n">
-        <v>364.6867491840973</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G45" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
         <v>34.51046220341689</v>
@@ -7728,49 +7728,49 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>34.51046220341689</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>322.1654788227464</v>
+        <v>275.573025203191</v>
       </c>
       <c r="M45" t="n">
-        <v>709.8245370472089</v>
+        <v>663.2320834276536</v>
       </c>
       <c r="N45" t="n">
-        <v>1123.450790414801</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O45" t="n">
-        <v>1435.422325547313</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1668.803918710127</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.429240783992</v>
+        <v>1271.709951285179</v>
       </c>
       <c r="U45" t="n">
-        <v>1483.23566606499</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1248.083557833248</v>
+        <v>808.3520603489289</v>
       </c>
       <c r="W45" t="n">
-        <v>993.8462011050461</v>
+        <v>723.4900536291627</v>
       </c>
       <c r="X45" t="n">
-        <v>993.8462011050461</v>
+        <v>515.6385534236299</v>
       </c>
       <c r="Y45" t="n">
-        <v>993.8462011050461</v>
+        <v>515.6385534236299</v>
       </c>
     </row>
     <row r="46">
@@ -7831,10 +7831,10 @@
         <v>330.7345172975944</v>
       </c>
       <c r="S46" t="n">
-        <v>209.4207309851712</v>
+        <v>209.4207309851713</v>
       </c>
       <c r="T46" t="n">
-        <v>203.2751013362059</v>
+        <v>203.275101336206</v>
       </c>
       <c r="U46" t="n">
         <v>137.2076861467565</v>
@@ -7843,7 +7843,7 @@
         <v>105.6545263400447</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225914</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X46" t="n">
         <v>34.51046220341689</v>
@@ -8769,22 +8769,22 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>184.762495433882</v>
+        <v>94.5024215275172</v>
       </c>
       <c r="L12" t="n">
-        <v>80.27972245565159</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.554095886839</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>441.9619164368271</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>118.1622196984939</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571166</v>
+        <v>324.1454125711651</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565159</v>
       </c>
       <c r="M15" t="n">
-        <v>74.13025746266395</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>427.5120603705714</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>238.7600270612401</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172075</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504508</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.554095886839</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N18" t="n">
-        <v>387.1824019899185</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661689</v>
       </c>
       <c r="P18" t="n">
-        <v>82.72378564719554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7220906850686</v>
+        <v>130.3263560055304</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172075</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565159</v>
       </c>
       <c r="M21" t="n">
-        <v>454.554095886839</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>411.7927320538449</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>82.72378564719554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7220906850686</v>
+        <v>105.7642160932254</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659906</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>454.554095886839</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368269</v>
+        <v>71.6985520103229</v>
       </c>
       <c r="O24" t="n">
-        <v>234.7276077790398</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>82.72378564719554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
         <v>94.5024215275172</v>
@@ -10674,7 +10674,7 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>217.0510374314571</v>
+        <v>241.6613674953836</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>94.5024215275172</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565159</v>
       </c>
       <c r="M39" t="n">
-        <v>333.9984139322495</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
         <v>441.9619164368269</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>130.3745461571521</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>94.5024215275172</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>323.7772608392618</v>
+        <v>129.2041152902739</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11376,10 +11376,10 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>94.5024215275172</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>153.8144453542004</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>163.0142032716518</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.556290738295</v>
+        <v>233.5562907382948</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>178.3558667294787</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642682</v>
+        <v>59.42064602642671</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874615</v>
+        <v>65.87283976874603</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>133.1411550264467</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>157.3606419626408</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.1554861797678</v>
+        <v>119.5889224048974</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374224</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847005</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457565</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5213376233411</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.289291402227685e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801579.9512026391</v>
+        <v>801579.951202639</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801579.9512026391</v>
+        <v>801579.951202639</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801579.951202639</v>
+        <v>801579.9512026391</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>778312.5217811866</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811867</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
         <v>667888.2069400985</v>
       </c>
       <c r="F2" t="n">
-        <v>667888.2069400985</v>
+        <v>667888.2069400982</v>
       </c>
       <c r="G2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="J2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="M2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="N2" t="n">
         <v>779989.6813710687</v>
       </c>
-      <c r="N2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710683</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189901</v>
+        <v>319206.1449189902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472433</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612105</v>
+        <v>116916.0581612106</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472433</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239521</v>
+        <v>87131.09894239515</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510447</v>
+        <v>34584.19673510458</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>377919.8023185458</v>
       </c>
       <c r="H4" t="n">
-        <v>377919.8023185458</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="I4" t="n">
         <v>377919.8023185458</v>
@@ -26451,13 +26451,13 @@
         <v>377919.8023185458</v>
       </c>
       <c r="N4" t="n">
-        <v>377919.8023185458</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="O4" t="n">
         <v>376989.2813831306</v>
       </c>
       <c r="P4" t="n">
-        <v>376989.2813831306</v>
+        <v>376989.2813831307</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
+        <v>45806.17671431451</v>
+      </c>
+      <c r="H5" t="n">
+        <v>45806.17671431451</v>
+      </c>
+      <c r="I5" t="n">
         <v>45806.17671431453</v>
-      </c>
-      <c r="H5" t="n">
-        <v>45806.17671431453</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45806.17671431451</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561135</v>
@@ -26497,7 +26497,7 @@
         <v>57382.03161561135</v>
       </c>
       <c r="L5" t="n">
-        <v>57382.03161561135</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
         <v>45806.17671431451</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308411.0420619384</v>
+        <v>308406.6284840703</v>
       </c>
       <c r="C6" t="n">
-        <v>308411.0420619384</v>
+        <v>308406.6284840702</v>
       </c>
       <c r="D6" t="n">
-        <v>308411.0420619386</v>
+        <v>308406.6284840701</v>
       </c>
       <c r="E6" t="n">
-        <v>955.2486376253946</v>
+        <v>660.2447575438335</v>
       </c>
       <c r="F6" t="n">
-        <v>320161.3935566156</v>
+        <v>319866.3896765337</v>
       </c>
       <c r="G6" t="n">
-        <v>271733.3917834841</v>
+        <v>271733.3917834843</v>
       </c>
       <c r="H6" t="n">
-        <v>356263.7023382083</v>
+        <v>356263.7023382087</v>
       </c>
       <c r="I6" t="n">
-        <v>356263.7023382088</v>
+        <v>356263.7023382084</v>
       </c>
       <c r="J6" t="n">
         <v>228863.1646169052</v>
       </c>
       <c r="K6" t="n">
-        <v>345779.2227781161</v>
+        <v>345779.2227781157</v>
       </c>
       <c r="L6" t="n">
-        <v>261248.9122233915</v>
+        <v>261248.9122233917</v>
       </c>
       <c r="M6" t="n">
-        <v>269132.6033958133</v>
+        <v>269132.6033958134</v>
       </c>
       <c r="N6" t="n">
-        <v>356263.7023382086</v>
+        <v>356263.7023382085</v>
       </c>
       <c r="O6" t="n">
         <v>320897.2575491439</v>
       </c>
       <c r="P6" t="n">
-        <v>355481.4542842488</v>
+        <v>355481.4542842486</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G2" t="n">
         <v>237.379489226118</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>380.4238384241748</v>
+      </c>
+      <c r="F4" t="n">
+        <v>380.4238384241748</v>
+      </c>
+      <c r="G4" t="n">
+        <v>380.4238384241748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>380.4238384241748</v>
+      </c>
+      <c r="I4" t="n">
         <v>380.423838424175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>380.423838424175</v>
-      </c>
-      <c r="G4" t="n">
-        <v>380.423838424175</v>
-      </c>
-      <c r="H4" t="n">
-        <v>380.423838424175</v>
-      </c>
-      <c r="I4" t="n">
-        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
         <v>691.5760929882895</v>
       </c>
       <c r="K4" t="n">
+        <v>691.5760929882894</v>
+      </c>
+      <c r="L4" t="n">
         <v>691.5760929882895</v>
-      </c>
-      <c r="L4" t="n">
-        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241748</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.38117208504676</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766595</v>
+        <v>87.33542894766592</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411198</v>
+        <v>27.90169797411212</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641147</v>
+        <v>311.1522545641145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006022</v>
+        <v>69.2715838600601</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.38117208504676</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3593325148273</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>125.4103569373511</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011628</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>99.26113280130583</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119067</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M13" t="n">
-        <v>116.6552291119091</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327125</v>
+        <v>99.26113280130537</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H15" t="n">
-        <v>25.62732717692676</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327125</v>
+        <v>49.33459915445569</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.6552291119103</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="17">
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>53.68647065227819</v>
+        <v>123.311754862198</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28734,10 +28734,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H19" t="n">
-        <v>147.5597265103228</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I19" t="n">
         <v>148.6838485916426</v>
@@ -28779,7 +28779,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768562</v>
       </c>
       <c r="W19" t="n">
         <v>237.379489226118</v>
@@ -28880,10 +28880,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>64.92385633035035</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -28892,13 +28892,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>173.3836090107768</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>166.5752761905912</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -29004,7 +29004,7 @@
         <v>67.32062995745125</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170863</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>220.0953094380075</v>
@@ -29019,7 +29019,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>236.778584999623</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>96.20602479606896</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29126,13 +29126,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.15602968011628</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>9.166220088461984</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>237.379489226118</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29250,13 +29250,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768565</v>
       </c>
       <c r="V25" t="n">
         <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>236.778584999623</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.82499436550927</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.08766787178547</v>
+      </c>
+      <c r="Y27" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T27" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="U27" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,13 +29451,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930778</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>24.10336573305778</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,13 +29469,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
-        <v>150.044060278452</v>
+        <v>7.809089096912132</v>
       </c>
       <c r="P28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.32062995745125</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.463521043040174</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29642,19 +29642,19 @@
         <v>150.044060278452</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="U30" t="n">
-        <v>4.463521043040316</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
         <v>150.044060278452</v>
@@ -29688,28 +29688,28 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J31" t="n">
+        <v>77.45106251930778</v>
+      </c>
+      <c r="K31" t="n">
+        <v>13.0814568986046</v>
+      </c>
+      <c r="L31" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="L31" t="n">
-        <v>101.5544282523656</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>67.32062995745125</v>
@@ -29834,10 +29834,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>2.0876678717853</v>
       </c>
       <c r="G33" t="n">
         <v>137.0751276698277</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.0625157568535</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29888,13 +29888,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="34">
@@ -29910,13 +29910,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29925,31 +29925,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
         <v>77.45106251930778</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>14.44166858541399</v>
       </c>
       <c r="N34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="P34" t="n">
-        <v>90.06378400369964</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0751276698277</v>
@@ -30110,25 +30110,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>125.6876080334528</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>226.3949696405947</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30192,13 +30192,13 @@
         <v>167.1761804170863</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957519</v>
       </c>
       <c r="T37" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>56.94660481768565</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V37" t="n">
         <v>237.379489226118</v>
@@ -30302,25 +30302,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>153.217909010823</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.69701566165491</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -30481,7 +30481,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="J41" t="n">
-        <v>46.15486527700799</v>
+        <v>47.87244289996877</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>124.1336792911213</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>43.47059421268202</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.6433667609296</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>2.967182243591409</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>67.32062995745125</v>
       </c>
       <c r="R43" t="n">
-        <v>47.07553196778738</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S43" t="n">
         <v>220.0953094380075</v>
@@ -30678,7 +30678,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658843</v>
       </c>
       <c r="X43" t="n">
         <v>220.9000151151833</v>
@@ -30715,19 +30715,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>46.15486527700796</v>
+        <v>77.63521095601268</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>124.1336792911213</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30742,10 +30742,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S44" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T44" t="n">
         <v>220.9000151151833</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,25 +30821,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>185.1420859056516</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>167.681596508351</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -30903,7 +30903,7 @@
         <v>167.1761804170863</v>
       </c>
       <c r="S46" t="n">
-        <v>99.99466098870849</v>
+        <v>99.99466098870863</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>90.26007390636482</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N12" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601126</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927416</v>
+        <v>35.43843405129838</v>
       </c>
       <c r="Q12" t="n">
         <v>104.3551970507805</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.2655385134048</v>
+        <v>54.26553851340491</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>120.5276612791221</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>191.5102481248445</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399398</v>
+        <v>210.2812465399399</v>
       </c>
       <c r="O13" t="n">
         <v>56.38908990501703</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851006</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526134</v>
+        <v>64.39597107526146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>30.62494344068234</v>
       </c>
       <c r="K14" t="n">
-        <v>167.8633002549973</v>
+        <v>167.8633002549963</v>
       </c>
       <c r="L14" t="n">
         <v>261.0539417397703</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392655</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N15" t="n">
-        <v>365.9739823579193</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601126</v>
       </c>
       <c r="P15" t="n">
-        <v>235.7389829927416</v>
+        <v>156.0362414140446</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3551970507805</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340474</v>
+        <v>54.26553851340491</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
-        <v>206.5716200456479</v>
+        <v>124.1896181673911</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399397</v>
+        <v>210.2812465399399</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377295</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
-        <v>24.49234305238786</v>
+        <v>156.2089440851006</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.33459915445902</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068362</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L17" t="n">
-        <v>261.0539417397703</v>
+        <v>261.0539417397707</v>
       </c>
       <c r="M17" t="n">
         <v>307.2470982515898</v>
@@ -35969,19 +35969,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>325.6443239772665</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O18" t="n">
-        <v>315.1227627601126</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>24.60426532046184</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068362</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K21" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>350.2546540411929</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601126</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.04212540815677295</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710477</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427575</v>
+        <v>44.17844238427706</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392655</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
@@ -36443,16 +36443,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241748</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241748</v>
+        <v>10.16047399767085</v>
       </c>
       <c r="O24" t="n">
-        <v>155.9880512624229</v>
+        <v>315.1227627601126</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q24" t="n">
         <v>104.3551970507805</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,13 +36747,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809436</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>27.9757979002731</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L28" t="n">
         <v>61.04268762206322</v>
@@ -36765,13 +36765,13 @@
         <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>206.433150183469</v>
+        <v>64.19817900192916</v>
       </c>
       <c r="P28" t="n">
         <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.72343032100076</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,10 +36841,10 @@
         <v>457.2911585300418</v>
       </c>
       <c r="N29" t="n">
-        <v>447.4829422958829</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362603</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.360211686809464</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914423</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456673</v>
+        <v>16.95388906581992</v>
       </c>
       <c r="L31" t="n">
-        <v>162.5971158744288</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
         <v>74.8550190129354</v>
       </c>
       <c r="N31" t="n">
-        <v>78.56464550722717</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501703</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>317.907360533448</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182223</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
         <v>457.2911585300418</v>
       </c>
       <c r="N32" t="n">
-        <v>447.4829422958829</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494997</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q32" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362603</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809436</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.872432167215319</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206322</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M34" t="n">
-        <v>74.8550190129354</v>
+        <v>89.29668759834939</v>
       </c>
       <c r="N34" t="n">
-        <v>228.6087057856792</v>
+        <v>78.56464550722717</v>
       </c>
       <c r="O34" t="n">
-        <v>206.433150183469</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5561270560875</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100076</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392655</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>380.4238384241748</v>
       </c>
       <c r="N36" t="n">
-        <v>155.512959418805</v>
+        <v>180.1232894827316</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601126</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.61033006392655</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>259.8681564695856</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N39" t="n">
         <v>380.4238384241748</v>
@@ -37640,7 +37640,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>24.65245547208347</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604388</v>
+        <v>29.76276805604391</v>
       </c>
       <c r="J41" t="n">
-        <v>76.77980871769033</v>
+        <v>78.49738634065112</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37786,7 +37786,7 @@
         <v>261.0539417397703</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515898</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N41" t="n">
         <v>297.438882017431</v>
@@ -37801,10 +37801,10 @@
         <v>44.17844238427575</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372455</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4975383836102</v>
+        <v>48.92439283462231</v>
       </c>
       <c r="M42" t="n">
         <v>391.5748062873359</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604391</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>30.62494344068234</v>
       </c>
       <c r="K44" t="n">
-        <v>214.0181655320039</v>
+        <v>245.4985112110087</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397703</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515898</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N44" t="n">
         <v>297.438882017431</v>
@@ -38038,10 +38038,10 @@
         <v>44.17844238427575</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372458</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>73.53472289854884</v>
       </c>
       <c r="M45" t="n">
         <v>391.5748062873359</v>
@@ -38114,7 +38114,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.29211258658324</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
